--- a/data/40tt_ir_data.xlsx
+++ b/data/40tt_ir_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ir-mit-hit\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ir-mit-hit\ir-mit-hit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166FF3E6-5A0D-4AFE-BC10-183BB296FC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35802255-63DA-478A-A161-8FFF2D8E49AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34AF712B-8F00-4134-9853-E123B3DFB281}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34AF712B-8F00-4134-9853-E123B3DFB281}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
         <v>312</v>
       </c>
       <c r="I2">
-        <v>4.382022471910112</v>
+        <v>4.2391304347826093</v>
       </c>
       <c r="J2">
         <v>4.08</v>
@@ -919,7 +919,7 @@
         <v>326</v>
       </c>
       <c r="I6">
-        <v>4.0903387703889589</v>
+        <v>4.1109709962168983</v>
       </c>
       <c r="J6">
         <v>3.59</v>
@@ -1002,7 +1002,7 @@
         <v>227</v>
       </c>
       <c r="I7">
-        <v>3.5579937304075235</v>
+        <v>3.4923076923076923</v>
       </c>
       <c r="J7">
         <v>5.09</v>
@@ -1085,7 +1085,7 @@
         <v>246</v>
       </c>
       <c r="I8">
-        <v>4.0527182866556837</v>
+        <v>3.9486356340288928</v>
       </c>
       <c r="J8">
         <v>6.66</v>
@@ -1168,57 +1168,60 @@
         <v>270</v>
       </c>
       <c r="I9">
+        <v>3.9705882352941178</v>
+      </c>
+      <c r="J9">
         <v>1.87</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2.02</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2.86</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>3.33</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>5.46</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>11.37</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>4.4849999999999994</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>14</v>
       </c>
-      <c r="Q9">
-        <v>15</v>
-      </c>
       <c r="R9">
         <v>15</v>
       </c>
       <c r="S9">
+        <v>15</v>
+      </c>
+      <c r="T9">
         <v>16</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>17</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>20</v>
       </c>
-      <c r="V9" s="1">
+      <c r="W9" s="1">
         <v>16.166666666666668</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>173</v>
-      </c>
-      <c r="X9">
-        <v>194</v>
       </c>
       <c r="Y9">
         <v>194</v>
       </c>
       <c r="Z9">
+        <v>194</v>
+      </c>
+      <c r="AA9">
         <v>9</v>
       </c>
     </row>
@@ -1248,57 +1251,60 @@
         <v>307</v>
       </c>
       <c r="I10">
+        <v>3.3117583603020497</v>
+      </c>
+      <c r="J10">
         <v>3.18</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>3.95</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>5.66</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>9.15</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>9.25</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>11.64</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>7.1383333333333328</v>
       </c>
-      <c r="P10">
-        <v>15</v>
-      </c>
       <c r="Q10">
         <v>15</v>
       </c>
       <c r="R10">
+        <v>15</v>
+      </c>
+      <c r="S10">
         <v>16</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>17</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>19</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>20</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <v>17</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>167</v>
-      </c>
-      <c r="X10">
-        <v>182</v>
       </c>
       <c r="Y10">
         <v>182</v>
       </c>
       <c r="Z10">
+        <v>182</v>
+      </c>
+      <c r="AA10">
         <v>9</v>
       </c>
     </row>
@@ -1743,57 +1749,60 @@
         <v>198</v>
       </c>
       <c r="I16">
+        <v>3.2300163132137034</v>
+      </c>
+      <c r="J16">
         <v>3.69</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>4.92</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>5.55</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>6.82</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>8.48</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>13.16</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>7.1033333333333344</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>14</v>
       </c>
-      <c r="Q16">
-        <v>15</v>
-      </c>
       <c r="R16">
+        <v>15</v>
+      </c>
+      <c r="S16">
         <v>17</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>16</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>17</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>19</v>
       </c>
-      <c r="V16" s="1">
+      <c r="W16" s="1">
         <v>16.333333333333332</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>186</v>
-      </c>
-      <c r="X16">
-        <v>199</v>
       </c>
       <c r="Y16">
         <v>199</v>
       </c>
       <c r="Z16">
+        <v>199</v>
+      </c>
+      <c r="AA16">
         <v>9</v>
       </c>
     </row>
@@ -1989,7 +1998,7 @@
         <v>245</v>
       </c>
       <c r="I19">
-        <v>3.5050071530758222</v>
+        <v>3.5100286532951293</v>
       </c>
       <c r="J19">
         <v>3.86</v>
@@ -2155,7 +2164,7 @@
         <v>262</v>
       </c>
       <c r="I21">
-        <v>4.0557275541795672</v>
+        <v>4.0620155038759691</v>
       </c>
       <c r="J21">
         <v>3.86</v>
@@ -2321,57 +2330,60 @@
         <v>287</v>
       </c>
       <c r="I23">
+        <v>3.7763157894736841</v>
+      </c>
+      <c r="J23">
         <v>3.92</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>4.6100000000000003</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>3.92</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>3.44</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>4.6100000000000003</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>6.24</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>4.456666666666667</v>
       </c>
-      <c r="P23">
-        <v>15</v>
-      </c>
       <c r="Q23">
         <v>15</v>
       </c>
       <c r="R23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S23">
         <v>16</v>
       </c>
       <c r="T23">
+        <v>16</v>
+      </c>
+      <c r="U23">
         <v>17</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>20</v>
       </c>
-      <c r="V23" s="1">
+      <c r="W23" s="1">
         <v>16.5</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>180</v>
-      </c>
-      <c r="X23">
-        <v>194</v>
       </c>
       <c r="Y23">
         <v>194</v>
       </c>
       <c r="Z23">
+        <v>194</v>
+      </c>
+      <c r="AA23">
         <v>9</v>
       </c>
     </row>
